--- a/details.xlsx
+++ b/details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Desktop\English team project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C3EFE-4872-4843-804B-F47C34268974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41140090-C191-4908-8264-E2B50495B381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="282">
   <si>
     <t>잉글리쉬캣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,6 +1202,18 @@
   </si>
   <si>
     <t>결재내역 DB로 값넘기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네아로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대홍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1612,8 +1624,8 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1890,11 +1902,15 @@
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
